--- a/锻炼计划表.xlsx
+++ b/锻炼计划表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4759D08-3459-4977-811B-36DFAA73EB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCFEC3A-D0AA-46DD-8A04-63E3408FC369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第 1 周" sheetId="3" r:id="rId1"/>
@@ -757,15 +757,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,6 +870,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,138 +924,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1211,8 +1211,8 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1223,18 +1223,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="73"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1266,7 +1266,7 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -1290,7 +1290,7 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="24" t="s">
         <v>20</v>
       </c>
@@ -1309,14 +1309,14 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="6.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1331,84 +1331,84 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="6.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="80" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="60" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="60" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="60" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="60" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="9"/>
@@ -1416,30 +1416,30 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="42" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -1486,13 +1486,13 @@
       <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="12" t="s">
         <v>28</v>
       </c>
@@ -1500,13 +1500,13 @@
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="51"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="12" t="s">
         <v>27</v>
       </c>
@@ -1514,13 +1514,13 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="52"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="13" t="s">
         <v>26</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="42" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -1546,13 +1546,13 @@
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="51"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="12" t="s">
         <v>28</v>
       </c>
@@ -1560,13 +1560,13 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="51"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1574,13 +1574,13 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="52"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="12" t="s">
         <v>26</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="42" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -1606,13 +1606,13 @@
       <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="51"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="12" t="s">
         <v>28</v>
       </c>
@@ -1620,13 +1620,13 @@
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="51"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="12" t="s">
         <v>27</v>
       </c>
@@ -1634,13 +1634,13 @@
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="51"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="12" t="s">
         <v>26</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="42" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="11" t="s">
@@ -1666,13 +1666,13 @@
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="51"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="12" t="s">
         <v>28</v>
       </c>
@@ -1680,13 +1680,13 @@
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="51"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="12" t="s">
         <v>27</v>
       </c>
@@ -1694,13 +1694,13 @@
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="52"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="13" t="s">
         <v>26</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -1716,88 +1716,88 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="56"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="58"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="29" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47" t="s">
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
@@ -1826,7 +1826,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -1836,7 +1836,7 @@
       <c r="D41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="40" t="s">
         <v>52</v>
       </c>
       <c r="F41" s="11" t="s">
@@ -1846,13 +1846,13 @@
       <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="27"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="12" t="s">
         <v>28</v>
       </c>
@@ -1860,13 +1860,13 @@
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="27"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="12" t="s">
         <v>27</v>
       </c>
@@ -1874,13 +1874,13 @@
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="28"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="13" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="40" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -1898,7 +1898,7 @@
       <c r="D45" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="40" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="11" t="s">
@@ -1908,13 +1908,13 @@
       <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="27"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="12" t="s">
         <v>28</v>
       </c>
@@ -1922,13 +1922,13 @@
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="27"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="12" t="s">
         <v>27</v>
       </c>
@@ -1936,13 +1936,13 @@
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="27"/>
+      <c r="E48" s="41"/>
       <c r="F48" s="12" t="s">
         <v>26</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1960,7 +1960,7 @@
       <c r="D49" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="40" t="s">
         <v>54</v>
       </c>
       <c r="F49" s="11" t="s">
@@ -1970,13 +1970,13 @@
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="27"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="12" t="s">
         <v>28</v>
       </c>
@@ -1984,13 +1984,13 @@
       <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="12" t="s">
         <v>27</v>
       </c>
@@ -1998,13 +1998,13 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="27"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="12" t="s">
         <v>26</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -2022,7 +2022,7 @@
       <c r="D53" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="40" t="s">
         <v>55</v>
       </c>
       <c r="F53" s="11" t="s">
@@ -2032,13 +2032,13 @@
       <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="27"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="12" t="s">
         <v>28</v>
       </c>
@@ -2046,13 +2046,13 @@
       <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="18"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="12" t="s">
         <v>27</v>
       </c>
@@ -2060,13 +2060,13 @@
       <c r="H55" s="18"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="28"/>
+      <c r="E56" s="54"/>
       <c r="F56" s="13" t="s">
         <v>26</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="H56" s="19"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="40" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -2084,7 +2084,7 @@
       <c r="D57" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="40" t="s">
         <v>56</v>
       </c>
       <c r="F57" s="11" t="s">
@@ -2094,13 +2094,13 @@
       <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="27"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="12" t="s">
         <v>28</v>
       </c>
@@ -2108,13 +2108,13 @@
       <c r="H58" s="18"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="27"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="12" t="s">
         <v>27</v>
       </c>
@@ -2122,13 +2122,13 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="28"/>
+      <c r="E60" s="54"/>
       <c r="F60" s="13" t="s">
         <v>26</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="H60" s="19"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -2146,88 +2146,88 @@
       <c r="D61" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="39"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="71"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="73"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="18"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="73"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="73"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="43"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="75"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="29" t="s">
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35" t="s">
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="37"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="81"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
@@ -2256,7 +2256,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="40" t="s">
         <v>67</v>
       </c>
       <c r="F69" s="11" t="s">
@@ -2274,13 +2274,13 @@
       <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="27"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="12" t="s">
         <v>69</v>
       </c>
@@ -2288,13 +2288,13 @@
       <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="18"/>
-      <c r="E71" s="27"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="12" t="s">
         <v>70</v>
       </c>
@@ -2302,13 +2302,13 @@
       <c r="H71" s="18"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="28"/>
+      <c r="E72" s="54"/>
       <c r="F72" s="13" t="s">
         <v>71</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="H72" s="19"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="40" t="s">
         <v>59</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="17"/>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="40" t="s">
         <v>72</v>
       </c>
       <c r="F73" s="11" t="s">
@@ -2334,13 +2334,13 @@
       <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="27"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="12" t="s">
         <v>69</v>
       </c>
@@ -2348,13 +2348,13 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="18"/>
-      <c r="E75" s="27"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="12" t="s">
         <v>70</v>
       </c>
@@ -2362,13 +2362,13 @@
       <c r="H75" s="18"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="27"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="13" t="s">
         <v>71</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="H76" s="18"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="17"/>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="40" t="s">
         <v>73</v>
       </c>
       <c r="F77" s="11" t="s">
@@ -2394,13 +2394,13 @@
       <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="27"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="18"/>
-      <c r="E78" s="27"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="12" t="s">
         <v>69</v>
       </c>
@@ -2408,13 +2408,13 @@
       <c r="H78" s="18"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="27"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="18"/>
-      <c r="E79" s="27"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="12" t="s">
         <v>70</v>
       </c>
@@ -2422,13 +2422,13 @@
       <c r="H79" s="18"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="27"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="18"/>
-      <c r="E80" s="27"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="13" t="s">
         <v>71</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="H80" s="18"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="17"/>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="40" t="s">
         <v>74</v>
       </c>
       <c r="F81" s="11" t="s">
@@ -2454,13 +2454,13 @@
       <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="27"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="27"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="12" t="s">
         <v>69</v>
       </c>
@@ -2468,13 +2468,13 @@
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="27"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="12" t="s">
         <v>70</v>
       </c>
@@ -2482,13 +2482,13 @@
       <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="28"/>
+      <c r="E84" s="54"/>
       <c r="F84" s="13" t="s">
         <v>71</v>
       </c>
@@ -2496,7 +2496,7 @@
       <c r="H84" s="19"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="17"/>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="40" t="s">
         <v>75</v>
       </c>
       <c r="F85" s="11" t="s">
@@ -2514,13 +2514,13 @@
       <c r="H85" s="17"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="18"/>
-      <c r="E86" s="27"/>
+      <c r="E86" s="41"/>
       <c r="F86" s="12" t="s">
         <v>69</v>
       </c>
@@ -2528,13 +2528,13 @@
       <c r="H86" s="18"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="18"/>
-      <c r="E87" s="27"/>
+      <c r="E87" s="41"/>
       <c r="F87" s="12" t="s">
         <v>70</v>
       </c>
@@ -2542,13 +2542,13 @@
       <c r="H87" s="18"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="28"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="28"/>
+      <c r="E88" s="54"/>
       <c r="F88" s="13" t="s">
         <v>71</v>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="H88" s="19"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="40" t="s">
         <v>64</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="17"/>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F89" s="11" t="s">
@@ -2574,13 +2574,13 @@
       <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="27"/>
+      <c r="E90" s="41"/>
       <c r="F90" s="12" t="s">
         <v>69</v>
       </c>
@@ -2588,13 +2588,13 @@
       <c r="H90" s="18"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="27"/>
+      <c r="E91" s="41"/>
       <c r="F91" s="12" t="s">
         <v>70</v>
       </c>
@@ -2602,13 +2602,13 @@
       <c r="H91" s="18"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="28"/>
+      <c r="E92" s="54"/>
       <c r="F92" s="13" t="s">
         <v>71</v>
       </c>
@@ -2616,46 +2616,80 @@
       <c r="H92" s="19"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="29" t="s">
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="31"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="29" t="s">
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="31"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="63"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="67">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="E61:H65"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="E33:H37"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="A10:C10"/>
@@ -2669,50 +2703,16 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="E33:H37"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="E61:H65"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2743,18 +2743,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="73"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2786,7 +2786,7 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2802,7 +2802,7 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2813,14 +2813,14 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="6.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -2835,84 +2835,84 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="6.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="80" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="60" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="60" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="60" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="60" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="9"/>
@@ -2920,30 +2920,30 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
@@ -2972,7 +2972,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="42" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -2990,13 +2990,13 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="12" t="s">
         <v>28</v>
       </c>
@@ -3004,13 +3004,13 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="51"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="12" t="s">
         <v>27</v>
       </c>
@@ -3018,13 +3018,13 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="52"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="13" t="s">
         <v>26</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="42" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -3050,13 +3050,13 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="51"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="12" t="s">
         <v>28</v>
       </c>
@@ -3064,13 +3064,13 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="51"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="12" t="s">
         <v>27</v>
       </c>
@@ -3078,13 +3078,13 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="52"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="12" t="s">
         <v>26</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="42" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -3110,13 +3110,13 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="51"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="12" t="s">
         <v>28</v>
       </c>
@@ -3124,13 +3124,13 @@
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="51"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="12" t="s">
         <v>27</v>
       </c>
@@ -3138,13 +3138,13 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="51"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="12" t="s">
         <v>26</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="42" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="11" t="s">
@@ -3170,13 +3170,13 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="51"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="12" t="s">
         <v>28</v>
       </c>
@@ -3184,13 +3184,13 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="51"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="12" t="s">
         <v>27</v>
       </c>
@@ -3198,13 +3198,13 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="52"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="13" t="s">
         <v>26</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -3220,88 +3220,88 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="56"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="58"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="29" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47" t="s">
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
@@ -3330,7 +3330,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="40" t="s">
         <v>52</v>
       </c>
       <c r="F41" s="11" t="s">
@@ -3348,13 +3348,13 @@
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="27"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="12" t="s">
         <v>28</v>
       </c>
@@ -3362,13 +3362,13 @@
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="27"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="12" t="s">
         <v>27</v>
       </c>
@@ -3376,13 +3376,13 @@
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="28"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="13" t="s">
         <v>26</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="40" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="40" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="11" t="s">
@@ -3408,13 +3408,13 @@
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="27"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="12" t="s">
         <v>28</v>
       </c>
@@ -3422,13 +3422,13 @@
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="27"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="12" t="s">
         <v>27</v>
       </c>
@@ -3436,13 +3436,13 @@
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="27"/>
+      <c r="E48" s="41"/>
       <c r="F48" s="12" t="s">
         <v>26</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="40" t="s">
         <v>54</v>
       </c>
       <c r="F49" s="11" t="s">
@@ -3468,13 +3468,13 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="27"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="12" t="s">
         <v>28</v>
       </c>
@@ -3482,13 +3482,13 @@
       <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="12" t="s">
         <v>27</v>
       </c>
@@ -3496,13 +3496,13 @@
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="15"/>
-      <c r="E52" s="27"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="12" t="s">
         <v>26</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="40" t="s">
         <v>55</v>
       </c>
       <c r="F53" s="11" t="s">
@@ -3528,13 +3528,13 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="15"/>
-      <c r="E54" s="27"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="12" t="s">
         <v>28</v>
       </c>
@@ -3542,13 +3542,13 @@
       <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="12" t="s">
         <v>27</v>
       </c>
@@ -3556,13 +3556,13 @@
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="28"/>
+      <c r="E56" s="54"/>
       <c r="F56" s="13" t="s">
         <v>26</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="40" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="40" t="s">
         <v>56</v>
       </c>
       <c r="F57" s="11" t="s">
@@ -3588,13 +3588,13 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="27"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="12" t="s">
         <v>28</v>
       </c>
@@ -3602,13 +3602,13 @@
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="27"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="12" t="s">
         <v>27</v>
       </c>
@@ -3616,13 +3616,13 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="28"/>
+      <c r="E60" s="54"/>
       <c r="F60" s="13" t="s">
         <v>26</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -3638,88 +3638,88 @@
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="39"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="71"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="15"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="73"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="73"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="16"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="73"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="43"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="75"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="29" t="s">
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35" t="s">
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="37"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="81"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
@@ -3748,7 +3748,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="40" t="s">
         <v>67</v>
       </c>
       <c r="F69" s="11" t="s">
@@ -3766,13 +3766,13 @@
       <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="15"/>
-      <c r="E70" s="27"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="12" t="s">
         <v>69</v>
       </c>
@@ -3780,13 +3780,13 @@
       <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="15"/>
-      <c r="E71" s="27"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="12" t="s">
         <v>70</v>
       </c>
@@ -3794,13 +3794,13 @@
       <c r="H71" s="15"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="16"/>
-      <c r="E72" s="28"/>
+      <c r="E72" s="54"/>
       <c r="F72" s="13" t="s">
         <v>71</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="40" t="s">
         <v>59</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="40" t="s">
         <v>72</v>
       </c>
       <c r="F73" s="11" t="s">
@@ -3826,13 +3826,13 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="15"/>
-      <c r="E74" s="27"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="12" t="s">
         <v>69</v>
       </c>
@@ -3840,13 +3840,13 @@
       <c r="H74" s="15"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="27"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="12" t="s">
         <v>70</v>
       </c>
@@ -3854,13 +3854,13 @@
       <c r="H75" s="15"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="15"/>
-      <c r="E76" s="27"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="13" t="s">
         <v>71</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="H76" s="15"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="14"/>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="40" t="s">
         <v>73</v>
       </c>
       <c r="F77" s="11" t="s">
@@ -3886,13 +3886,13 @@
       <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="27"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="15"/>
-      <c r="E78" s="27"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="12" t="s">
         <v>69</v>
       </c>
@@ -3900,13 +3900,13 @@
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="27"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="15"/>
-      <c r="E79" s="27"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="12" t="s">
         <v>70</v>
       </c>
@@ -3914,13 +3914,13 @@
       <c r="H79" s="15"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="27"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="15"/>
-      <c r="E80" s="27"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="13" t="s">
         <v>71</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="H80" s="15"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="14"/>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="40" t="s">
         <v>74</v>
       </c>
       <c r="F81" s="11" t="s">
@@ -3946,13 +3946,13 @@
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="27"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="15"/>
-      <c r="E82" s="27"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="12" t="s">
         <v>69</v>
       </c>
@@ -3960,13 +3960,13 @@
       <c r="H82" s="15"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="15"/>
-      <c r="E83" s="27"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="12" t="s">
         <v>70</v>
       </c>
@@ -3974,13 +3974,13 @@
       <c r="H83" s="15"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="28"/>
+      <c r="E84" s="54"/>
       <c r="F84" s="13" t="s">
         <v>71</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="14"/>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="40" t="s">
         <v>75</v>
       </c>
       <c r="F85" s="11" t="s">
@@ -4006,13 +4006,13 @@
       <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="15"/>
-      <c r="E86" s="27"/>
+      <c r="E86" s="41"/>
       <c r="F86" s="12" t="s">
         <v>69</v>
       </c>
@@ -4020,13 +4020,13 @@
       <c r="H86" s="15"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="15"/>
-      <c r="E87" s="27"/>
+      <c r="E87" s="41"/>
       <c r="F87" s="12" t="s">
         <v>70</v>
       </c>
@@ -4034,13 +4034,13 @@
       <c r="H87" s="15"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="28"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="16"/>
-      <c r="E88" s="28"/>
+      <c r="E88" s="54"/>
       <c r="F88" s="13" t="s">
         <v>71</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="40" t="s">
         <v>64</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="14"/>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F89" s="11" t="s">
@@ -4066,13 +4066,13 @@
       <c r="H89" s="14"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="15"/>
-      <c r="E90" s="27"/>
+      <c r="E90" s="41"/>
       <c r="F90" s="12" t="s">
         <v>69</v>
       </c>
@@ -4080,13 +4080,13 @@
       <c r="H90" s="15"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="15"/>
-      <c r="E91" s="27"/>
+      <c r="E91" s="41"/>
       <c r="F91" s="12" t="s">
         <v>70</v>
       </c>
@@ -4094,13 +4094,13 @@
       <c r="H91" s="15"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="16"/>
-      <c r="E92" s="28"/>
+      <c r="E92" s="54"/>
       <c r="F92" s="13" t="s">
         <v>71</v>
       </c>
@@ -4108,36 +4108,87 @@
       <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="29" t="s">
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="31"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="29" t="s">
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="31"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="63"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="67">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="E33:H37"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E61:H65"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A61:A64"/>
     <mergeCell ref="A85:A88"/>
     <mergeCell ref="A89:A92"/>
     <mergeCell ref="A93:D93"/>
@@ -4154,57 +4205,6 @@
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A69:A72"/>
     <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E61:H65"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="E33:H37"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
